--- a/CP4/Documentos CP4/Objetivo_3.xlsx
+++ b/CP4/Documentos CP4/Objetivo_3.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inescosta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inescosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{278735B0-E19C-214A-9C80-4A9D600329F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F75A90-C801-AD46-AA7B-587193DC142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="15060" windowHeight="15800" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15060" windowHeight="15800" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,9 +38,6 @@
     <t>Amostras da velocidade do motor</t>
   </si>
   <si>
-    <t>Corrente (mA)</t>
-  </si>
-  <si>
     <t>Tensão (V)</t>
   </si>
   <si>
@@ -61,13 +58,16 @@
   <si>
     <t>mm</t>
   </si>
+  <si>
+    <t>Corrente (A)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -199,14 +199,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +596,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>17.736910000000002</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>4.8</v>
@@ -649,12 +649,12 @@
         <v>3.3</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="11">
         <v>18.05106</v>
@@ -663,14 +663,14 @@
         <v>3</v>
       </c>
       <c r="J7" s="4">
-        <f>(B11-(J15*(B8/1000)))/F6</f>
-        <v>0.34461575655637666</v>
+        <f>(B11-(J15*(B8)))/F6</f>
+        <v>0.24167716115900714</v>
       </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>5</v>
+        <v>0.52</v>
       </c>
       <c r="D8" s="11">
         <v>17.920159999999999</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="11">
         <v>18.168869999999998</v>
@@ -702,7 +702,7 @@
         <v>3.3</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10" s="10"/>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="J11" s="4">
         <f>J19/F6</f>
-        <v>9.9253691647450447E-5</v>
+        <v>7.2390318708780372E-3</v>
       </c>
       <c r="L11" s="8"/>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="J14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="J18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -791,8 +791,8 @@
         <v>17.318020000000001</v>
       </c>
       <c r="J19" s="4">
-        <f>J7*(B8/1000)</f>
-        <v>1.7230787827818834E-3</v>
+        <f>J7*B8</f>
+        <v>0.12567212380268372</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.2">

--- a/CP4/Documentos CP4/Objetivo_3.xlsx
+++ b/CP4/Documentos CP4/Objetivo_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inescosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F75A90-C801-AD46-AA7B-587193DC142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCDECB-47FB-4E08-90E5-976405B021A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15060" windowHeight="15800" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Amostras da velocidade do motor</t>
   </si>
@@ -61,6 +63,12 @@
   <si>
     <t>Corrente (A)</t>
   </si>
+  <si>
+    <t>Simulação da Resposta Livre do Sistema</t>
+  </si>
+  <si>
+    <t>Simulação da Resposta Forçada do Sistema</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,8 +91,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD883FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +136,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD883FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -169,11 +196,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,6 +353,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,9 +388,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD883FF"/>
       <color rgb="FFD5FC79"/>
       <color rgb="FFFFFDA9"/>
-      <color rgb="FFD883FF"/>
       <color rgb="FF76D6FF"/>
       <color rgb="FFFFAA41"/>
       <color rgb="FFFF9300"/>
@@ -293,11 +464,103 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A13ABE-E33B-4342-B224-6D718DF67B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1341" t="3400" r="744" b="2600"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15102840" y="838199"/>
+          <a:ext cx="5006340" cy="3581401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>68582</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>151810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087817C1-5CC3-47E9-B9DD-14E6C0F102F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="5896"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21069302" y="868680"/>
+          <a:ext cx="4968238" cy="3527470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -593,24 +856,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0878E4EB-A4B2-E94C-8C48-639DC81662BA}">
-  <dimension ref="B2:L33"/>
+  <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.296875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="S2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="17"/>
+    </row>
+    <row r="3" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,15 +899,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="11">
         <v>18.2605</v>
       </c>
       <c r="H4" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="20"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="12">
         <v>17.736910000000002</v>
       </c>
@@ -636,8 +929,20 @@
       <c r="H5" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11">
         <v>18.247409999999999</v>
       </c>
@@ -651,8 +956,20 @@
       <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
@@ -666,9 +983,20 @@
         <f>(B11-(J15*(B8)))/F6</f>
         <v>0.24167716115900714</v>
       </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="24"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="23"/>
+    </row>
+    <row r="8" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>0.52</v>
       </c>
@@ -678,9 +1006,20 @@
       <c r="H8" s="1">
         <v>3.3</v>
       </c>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="25"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="23"/>
+    </row>
+    <row r="9" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="12">
         <v>17.985610000000001</v>
       </c>
@@ -688,9 +1027,20 @@
       <c r="H9" s="1">
         <v>3.2</v>
       </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="26"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
@@ -704,9 +1054,20 @@
       <c r="J10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="26"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -721,9 +1082,20 @@
         <f>J19/F6</f>
         <v>7.2390318708780372E-3</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="24"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="23"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D12" s="11">
         <v>18.391407000000001</v>
       </c>
@@ -731,9 +1103,20 @@
       <c r="H12" s="1">
         <v>3.3</v>
       </c>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="25"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="12">
         <v>17.959430000000001</v>
       </c>
@@ -741,9 +1124,20 @@
       <c r="H13" s="2">
         <v>3.3</v>
       </c>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="26"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="23"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
         <v>17.77617</v>
       </c>
@@ -751,9 +1145,20 @@
       <c r="J14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="26"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="23"/>
+    </row>
+    <row r="15" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
         <v>17.946339999999999</v>
       </c>
@@ -762,22 +1167,58 @@
         <f>AVERAGE(H4:H13)</f>
         <v>3.4699999999999998</v>
       </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="24"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>18.509209999999999</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="25"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <v>17.448929</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="23"/>
+    </row>
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>17.318020000000001</v>
       </c>
@@ -785,8 +1226,20 @@
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="23"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="23"/>
+    </row>
+    <row r="19" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
         <v>17.318020000000001</v>
       </c>
@@ -794,78 +1247,118 @@
         <f>J7*B8</f>
         <v>0.12567212380268372</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>17.69763</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
         <v>16.912240000000001</v>
       </c>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="29"/>
+    </row>
+    <row r="22" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>17.030049999999999</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>16.32319</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>16.742069999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>16.37555</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>16.24465</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <v>16.310099999999998</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
         <v>16.467179999999999</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
         <v>17.095500999999999</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
         <v>16.663530000000002</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
         <v>16.85988</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
         <v>16.506450000000001</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="2">
         <v>16.126840000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="S2:X2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CP4/Documentos CP4/Objetivo_3.xlsx
+++ b/CP4/Documentos CP4/Objetivo_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCCDECB-47FB-4E08-90E5-976405B021A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D681FF-4EA0-442D-A769-8075F2DDBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Amostras da velocidade do motor</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Simulação da Resposta Forçada do Sistema</t>
+  </si>
+  <si>
+    <t>s1=0 e s2= -2,017</t>
+  </si>
+  <si>
+    <t>polos</t>
   </si>
 </sst>
 </file>
@@ -105,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +148,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -313,11 +325,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,17 +425,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -380,6 +443,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,12 +472,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9300"/>
       <color rgb="FFD883FF"/>
       <color rgb="FFD5FC79"/>
       <color rgb="FFFFFDA9"/>
       <color rgb="FF76D6FF"/>
       <color rgb="FFFFAA41"/>
-      <color rgb="FFFF9300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -469,20 +553,20 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>45719</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>815340</xdr:colOff>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A13ABE-E33B-4342-B224-6D718DF67B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367ABDF2-F9F2-46D5-B608-D38DB1C8D73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -491,20 +575,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1341" t="3400" r="744" b="2600"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="4751" t="8240" r="6588" b="1298"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15102840" y="838199"/>
-          <a:ext cx="5006340" cy="3581401"/>
+          <a:off x="15102840" y="853440"/>
+          <a:ext cx="5029200" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,22 +594,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>68582</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>151810</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087817C1-5CC3-47E9-B9DD-14E6C0F102F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4575E5-1477-4E3F-B2EA-E1FEDCC89490}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,15 +617,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect t="5896"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21069302" y="868680"/>
-          <a:ext cx="4968238" cy="3527470"/>
+          <a:off x="21023580" y="845819"/>
+          <a:ext cx="5044440" cy="3528061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0878E4EB-A4B2-E94C-8C48-639DC81662BA}">
   <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -874,22 +953,22 @@
   <sheetData>
     <row r="1" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="S2" s="13" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="S2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="17"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="29"/>
     </row>
     <row r="3" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
@@ -906,18 +985,18 @@
       <c r="H4" s="1">
         <v>3.8</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="20"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="12">
@@ -929,18 +1008,18 @@
       <c r="H5" s="1">
         <v>4.8</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="20"/>
     </row>
     <row r="6" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11">
@@ -956,18 +1035,18 @@
       <c r="J6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="23"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="20"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="20"/>
     </row>
     <row r="7" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -983,18 +1062,18 @@
         <f>(B11-(J15*(B8)))/F6</f>
         <v>0.24167716115900714</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="23"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1006,18 +1085,18 @@
       <c r="H8" s="1">
         <v>3.3</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="20"/>
     </row>
     <row r="9" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="12">
@@ -1027,18 +1106,18 @@
       <c r="H9" s="1">
         <v>3.2</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="23"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="20"/>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
@@ -1054,18 +1133,18 @@
       <c r="J10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="20"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="20"/>
     </row>
     <row r="11" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
@@ -1082,18 +1161,18 @@
         <f>J19/F6</f>
         <v>7.2390318708780372E-3</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="23"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="20"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D12" s="11">
@@ -1103,18 +1182,18 @@
       <c r="H12" s="1">
         <v>3.3</v>
       </c>
-      <c r="L12" s="25"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="23"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="20"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="20"/>
     </row>
     <row r="13" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="12">
@@ -1124,18 +1203,18 @@
       <c r="H13" s="2">
         <v>3.3</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="23"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
@@ -1145,18 +1224,18 @@
       <c r="J14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="23"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="20"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
     </row>
     <row r="15" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
@@ -1167,56 +1246,56 @@
         <f>AVERAGE(H4:H13)</f>
         <v>3.4699999999999998</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="23"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="23"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="20"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
         <v>18.509209999999999</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="23"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="20"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="20"/>
     </row>
     <row r="17" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <v>17.448929</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="23"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="20"/>
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
@@ -1226,18 +1305,18 @@
       <c r="J18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="23"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="23"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="20"/>
     </row>
     <row r="19" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
@@ -1247,54 +1326,54 @@
         <f>J7*B8</f>
         <v>0.12567212380268372</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="23"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="23"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>17.69763</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="23"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="20"/>
     </row>
     <row r="21" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
         <v>16.912240000000001</v>
       </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="29"/>
-    </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="26"/>
+    </row>
+    <row r="22" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
         <v>17.030049999999999</v>
       </c>
@@ -1303,11 +1382,19 @@
       <c r="D23" s="1">
         <v>16.32319</v>
       </c>
-    </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="N23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
         <v>16.742069999999998</v>
       </c>
+      <c r="N24" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="33"/>
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
@@ -1355,9 +1442,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="L2:Q2"/>
     <mergeCell ref="S2:X2"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CP4/Documentos CP4/Objetivo_3.xlsx
+++ b/CP4/Documentos CP4/Objetivo_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inescosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D681FF-4EA0-442D-A769-8075F2DDBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C0A87-EB54-FA4E-B6C4-DCCB4BF3080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
+    <workbookView xWindow="4460" yWindow="800" windowWidth="23260" windowHeight="12580" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -452,16 +450,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -937,22 +935,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0878E4EB-A4B2-E94C-8C48-639DC81662BA}">
   <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.296875" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="10" max="10" width="21.69921875" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
@@ -970,7 +968,7 @@
       <c r="W2" s="28"/>
       <c r="X2" s="29"/>
     </row>
-    <row r="3" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -978,9 +976,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D4" s="11">
-        <v>18.2605</v>
+        <v>13.26</v>
       </c>
       <c r="H4" s="1">
         <v>3.8</v>
@@ -998,9 +996,9 @@
       <c r="W4" s="16"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12">
-        <v>17.736910000000002</v>
+        <v>13.548120000000001</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -1021,13 +1019,13 @@
       <c r="W5" s="19"/>
       <c r="X5" s="20"/>
     </row>
-    <row r="6" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11">
-        <v>18.247409999999999</v>
+        <v>13.535</v>
       </c>
       <c r="F6" s="4">
         <f>AVERAGE(D4:D33)</f>
-        <v>17.360349566666667</v>
+        <v>13.448626000000001</v>
       </c>
       <c r="H6" s="1">
         <v>3.3</v>
@@ -1048,19 +1046,19 @@
       <c r="W6" s="19"/>
       <c r="X6" s="20"/>
     </row>
-    <row r="7" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="11">
-        <v>18.05106</v>
+        <v>13.613569999999999</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="4">
         <f>(B11-(J15*(B8)))/F6</f>
-        <v>0.24167716115900714</v>
+        <v>0.31197239033935509</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="19"/>
@@ -1075,12 +1073,12 @@
       <c r="W7" s="19"/>
       <c r="X7" s="20"/>
     </row>
-    <row r="8" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>0.52</v>
       </c>
       <c r="D8" s="11">
-        <v>17.920159999999999</v>
+        <v>13.548120000000001</v>
       </c>
       <c r="H8" s="1">
         <v>3.3</v>
@@ -1098,9 +1096,9 @@
       <c r="W8" s="19"/>
       <c r="X8" s="20"/>
     </row>
-    <row r="9" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D9" s="12">
-        <v>17.985610000000001</v>
+        <v>13.2994</v>
       </c>
       <c r="F9" s="8"/>
       <c r="H9" s="1">
@@ -1119,12 +1117,12 @@
       <c r="W9" s="19"/>
       <c r="X9" s="20"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="11">
-        <v>18.168869999999998</v>
+        <v>13.5481</v>
       </c>
       <c r="F10" s="9"/>
       <c r="H10" s="1">
@@ -1146,12 +1144,12 @@
       <c r="W10" s="19"/>
       <c r="X10" s="20"/>
     </row>
-    <row r="11" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="11">
-        <v>18.417580000000001</v>
+        <v>13.5481</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="1">
@@ -1159,7 +1157,7 @@
       </c>
       <c r="J11" s="4">
         <f>J19/F6</f>
-        <v>7.2390318708780372E-3</v>
+        <v>1.2062618365360494E-2</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="19"/>
@@ -1174,9 +1172,9 @@
       <c r="W11" s="19"/>
       <c r="X11" s="20"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D12" s="11">
-        <v>18.391407000000001</v>
+        <v>13.626659999999999</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="1">
@@ -1195,9 +1193,9 @@
       <c r="W12" s="19"/>
       <c r="X12" s="20"/>
     </row>
-    <row r="13" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D13" s="12">
-        <v>17.959430000000001</v>
+        <v>13.587400000000001</v>
       </c>
       <c r="F13" s="8"/>
       <c r="H13" s="2">
@@ -1216,9 +1214,9 @@
       <c r="W13" s="19"/>
       <c r="X13" s="20"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
-        <v>17.77617</v>
+        <v>13.953900000000001</v>
       </c>
       <c r="F14" s="9"/>
       <c r="J14" s="5" t="s">
@@ -1237,9 +1235,9 @@
       <c r="W14" s="19"/>
       <c r="X14" s="20"/>
     </row>
-    <row r="15" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
-        <v>17.946339999999999</v>
+        <v>13.823</v>
       </c>
       <c r="F15" s="10"/>
       <c r="J15" s="4">
@@ -1259,9 +1257,9 @@
       <c r="W15" s="19"/>
       <c r="X15" s="20"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="D16" s="1">
-        <v>18.509209999999999</v>
+        <v>13.7576</v>
       </c>
       <c r="F16" s="10"/>
       <c r="L16" s="22"/>
@@ -1277,9 +1275,9 @@
       <c r="W16" s="19"/>
       <c r="X16" s="20"/>
     </row>
-    <row r="17" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
-        <v>17.448929</v>
+        <v>13.7052</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -1297,9 +1295,9 @@
       <c r="W17" s="19"/>
       <c r="X17" s="20"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D18" s="1">
-        <v>17.318020000000001</v>
+        <v>13.75756</v>
       </c>
       <c r="F18" s="9"/>
       <c r="J18" s="5" t="s">
@@ -1318,13 +1316,13 @@
       <c r="W18" s="19"/>
       <c r="X18" s="20"/>
     </row>
-    <row r="19" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
-        <v>17.318020000000001</v>
+        <v>13.456490000000001</v>
       </c>
       <c r="J19" s="4">
         <f>J7*B8</f>
-        <v>0.12567212380268372</v>
+        <v>0.16222564297646466</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="19"/>
@@ -1339,9 +1337,9 @@
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
-        <v>17.69763</v>
+        <v>13.391030000000001</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
@@ -1356,9 +1354,9 @@
       <c r="W20" s="19"/>
       <c r="X20" s="20"/>
     </row>
-    <row r="21" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
-        <v>16.912240000000001</v>
+        <v>13.142329999999999</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
@@ -1373,72 +1371,72 @@
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
     </row>
-    <row r="22" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
-        <v>17.030049999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.116149999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D23" s="1">
-        <v>16.32319</v>
-      </c>
-      <c r="N23" s="30" t="s">
+        <v>13.155419999999999</v>
+      </c>
+      <c r="N23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="31"/>
-    </row>
-    <row r="24" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O23" s="33"/>
+    </row>
+    <row r="24" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
-        <v>16.742069999999998</v>
-      </c>
-      <c r="N24" s="32" t="s">
+        <v>13.28632</v>
+      </c>
+      <c r="N24" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="33"/>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D25" s="1">
-        <v>16.37555</v>
-      </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.20778</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D26" s="1">
-        <v>16.24465</v>
-      </c>
-    </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.2994</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
-        <v>16.310099999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.3779</v>
+      </c>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D28" s="1">
-        <v>16.467179999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.3779</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D29" s="1">
-        <v>17.095500999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.338699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D30" s="1">
-        <v>16.663530000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.3125</v>
+      </c>
+    </row>
+    <row r="31" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D31" s="1">
-        <v>16.85988</v>
-      </c>
-    </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
+        <v>13.377940000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.2">
       <c r="D32" s="1">
-        <v>16.506450000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13.3125</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
-        <v>16.126840000000001</v>
+        <v>13.19469</v>
       </c>
     </row>
   </sheetData>

--- a/CP4/Documentos CP4/Objetivo_3.xlsx
+++ b/CP4/Documentos CP4/Objetivo_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inescosta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C0A87-EB54-FA4E-B6C4-DCCB4BF3080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D681FF-4EA0-442D-A769-8075F2DDBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="800" windowWidth="23260" windowHeight="12580" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -450,16 +452,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +639,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -935,22 +937,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0878E4EB-A4B2-E94C-8C48-639DC81662BA}">
   <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.296875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L2" s="27" t="s">
         <v>9</v>
       </c>
@@ -968,7 +970,7 @@
       <c r="W2" s="28"/>
       <c r="X2" s="29"/>
     </row>
-    <row r="3" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -976,9 +978,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="11">
-        <v>13.26</v>
+        <v>18.2605</v>
       </c>
       <c r="H4" s="1">
         <v>3.8</v>
@@ -996,9 +998,9 @@
       <c r="W4" s="16"/>
       <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="12">
-        <v>13.548120000000001</v>
+        <v>17.736910000000002</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
@@ -1019,13 +1021,13 @@
       <c r="W5" s="19"/>
       <c r="X5" s="20"/>
     </row>
-    <row r="6" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11">
-        <v>13.535</v>
+        <v>18.247409999999999</v>
       </c>
       <c r="F6" s="4">
         <f>AVERAGE(D4:D33)</f>
-        <v>13.448626000000001</v>
+        <v>17.360349566666667</v>
       </c>
       <c r="H6" s="1">
         <v>3.3</v>
@@ -1046,19 +1048,19 @@
       <c r="W6" s="19"/>
       <c r="X6" s="20"/>
     </row>
-    <row r="7" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="11">
-        <v>13.613569999999999</v>
+        <v>18.05106</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="J7" s="4">
         <f>(B11-(J15*(B8)))/F6</f>
-        <v>0.31197239033935509</v>
+        <v>0.24167716115900714</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="19"/>
@@ -1073,12 +1075,12 @@
       <c r="W7" s="19"/>
       <c r="X7" s="20"/>
     </row>
-    <row r="8" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <v>0.52</v>
       </c>
       <c r="D8" s="11">
-        <v>13.548120000000001</v>
+        <v>17.920159999999999</v>
       </c>
       <c r="H8" s="1">
         <v>3.3</v>
@@ -1096,9 +1098,9 @@
       <c r="W8" s="19"/>
       <c r="X8" s="20"/>
     </row>
-    <row r="9" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="12">
-        <v>13.2994</v>
+        <v>17.985610000000001</v>
       </c>
       <c r="F9" s="8"/>
       <c r="H9" s="1">
@@ -1117,12 +1119,12 @@
       <c r="W9" s="19"/>
       <c r="X9" s="20"/>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="11">
-        <v>13.5481</v>
+        <v>18.168869999999998</v>
       </c>
       <c r="F10" s="9"/>
       <c r="H10" s="1">
@@ -1144,12 +1146,12 @@
       <c r="W10" s="19"/>
       <c r="X10" s="20"/>
     </row>
-    <row r="11" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="11">
-        <v>13.5481</v>
+        <v>18.417580000000001</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="1">
@@ -1157,7 +1159,7 @@
       </c>
       <c r="J11" s="4">
         <f>J19/F6</f>
-        <v>1.2062618365360494E-2</v>
+        <v>7.2390318708780372E-3</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="19"/>
@@ -1172,9 +1174,9 @@
       <c r="W11" s="19"/>
       <c r="X11" s="20"/>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D12" s="11">
-        <v>13.626659999999999</v>
+        <v>18.391407000000001</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="1">
@@ -1193,9 +1195,9 @@
       <c r="W12" s="19"/>
       <c r="X12" s="20"/>
     </row>
-    <row r="13" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="12">
-        <v>13.587400000000001</v>
+        <v>17.959430000000001</v>
       </c>
       <c r="F13" s="8"/>
       <c r="H13" s="2">
@@ -1214,9 +1216,9 @@
       <c r="W13" s="19"/>
       <c r="X13" s="20"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
-        <v>13.953900000000001</v>
+        <v>17.77617</v>
       </c>
       <c r="F14" s="9"/>
       <c r="J14" s="5" t="s">
@@ -1235,9 +1237,9 @@
       <c r="W14" s="19"/>
       <c r="X14" s="20"/>
     </row>
-    <row r="15" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
-        <v>13.823</v>
+        <v>17.946339999999999</v>
       </c>
       <c r="F15" s="10"/>
       <c r="J15" s="4">
@@ -1257,9 +1259,9 @@
       <c r="W15" s="19"/>
       <c r="X15" s="20"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
-        <v>13.7576</v>
+        <v>18.509209999999999</v>
       </c>
       <c r="F16" s="10"/>
       <c r="L16" s="22"/>
@@ -1275,9 +1277,9 @@
       <c r="W16" s="19"/>
       <c r="X16" s="20"/>
     </row>
-    <row r="17" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
-        <v>13.7052</v>
+        <v>17.448929</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -1295,9 +1297,9 @@
       <c r="W17" s="19"/>
       <c r="X17" s="20"/>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
-        <v>13.75756</v>
+        <v>17.318020000000001</v>
       </c>
       <c r="F18" s="9"/>
       <c r="J18" s="5" t="s">
@@ -1316,13 +1318,13 @@
       <c r="W18" s="19"/>
       <c r="X18" s="20"/>
     </row>
-    <row r="19" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
-        <v>13.456490000000001</v>
+        <v>17.318020000000001</v>
       </c>
       <c r="J19" s="4">
         <f>J7*B8</f>
-        <v>0.16222564297646466</v>
+        <v>0.12567212380268372</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="19"/>
@@ -1337,9 +1339,9 @@
       <c r="W19" s="19"/>
       <c r="X19" s="20"/>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
-        <v>13.391030000000001</v>
+        <v>17.69763</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
@@ -1354,9 +1356,9 @@
       <c r="W20" s="19"/>
       <c r="X20" s="20"/>
     </row>
-    <row r="21" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
-        <v>13.142329999999999</v>
+        <v>16.912240000000001</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
@@ -1371,72 +1373,72 @@
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
     </row>
-    <row r="22" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
-        <v>13.116149999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.2">
+        <v>17.030049999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
-        <v>13.155419999999999</v>
-      </c>
-      <c r="N23" s="32" t="s">
+        <v>16.32319</v>
+      </c>
+      <c r="N23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="33"/>
-    </row>
-    <row r="24" spans="4:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
-        <v>13.28632</v>
-      </c>
-      <c r="N24" s="30" t="s">
+        <v>16.742069999999998</v>
+      </c>
+      <c r="N24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="31"/>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.2">
+      <c r="O24" s="33"/>
+    </row>
+    <row r="25" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
-        <v>13.20778</v>
-      </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.2">
+        <v>16.37555</v>
+      </c>
+    </row>
+    <row r="26" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
-        <v>13.2994</v>
-      </c>
-    </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.2">
+        <v>16.24465</v>
+      </c>
+    </row>
+    <row r="27" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
-        <v>13.3779</v>
-      </c>
-    </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.2">
+        <v>16.310099999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
-        <v>13.3779</v>
-      </c>
-    </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.2">
+        <v>16.467179999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
-        <v>13.338699999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.2">
+        <v>17.095500999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
-        <v>13.3125</v>
-      </c>
-    </row>
-    <row r="31" spans="4:24" x14ac:dyDescent="0.2">
+        <v>16.663530000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
-        <v>13.377940000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.2">
+        <v>16.85988</v>
+      </c>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
-        <v>13.3125</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>16.506450000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="2">
-        <v>13.19469</v>
+        <v>16.126840000000001</v>
       </c>
     </row>
   </sheetData>

--- a/CP4/Documentos CP4/Objetivo_3.xlsx
+++ b/CP4/Documentos CP4/Objetivo_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaim\Documents\universidade\Projeto Integrador\Documentos CP4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D681FF-4EA0-442D-A769-8075F2DDBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF130D-8605-48B6-88C1-4FFF1700A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BCC85B6-F674-9B4B-9DD9-CD90002F89E8}"/>
   </bookViews>
@@ -70,10 +70,10 @@
     <t>Simulação da Resposta Forçada do Sistema</t>
   </si>
   <si>
-    <t>s1=0 e s2= -2,017</t>
+    <t>polos</t>
   </si>
   <si>
-    <t>polos</t>
+    <t>s1=0 e s2=  -2.6646898</t>
   </si>
 </sst>
 </file>
@@ -452,16 +452,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -550,23 +550,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>198121</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{367ABDF2-F9F2-46D5-B608-D38DB1C8D73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097307DF-CA30-425A-B73C-77A1D8554F9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -574,15 +574,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="4751" t="8240" r="6588" b="1298"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15102840" y="853440"/>
-          <a:ext cx="5029200" cy="3543300"/>
+          <a:off x="21099780" y="845821"/>
+          <a:ext cx="4983480" cy="3596640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,23 +594,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4575E5-1477-4E3F-B2EA-E1FEDCC89490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDEC6904-3DF0-4224-AD1A-E980196281B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,8 +626,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21023580" y="845819"/>
-          <a:ext cx="5044440" cy="3528061"/>
+          <a:off x="15057120" y="830580"/>
+          <a:ext cx="5021580" cy="3550920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0878E4EB-A4B2-E94C-8C48-639DC81662BA}">
   <dimension ref="B1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -980,10 +981,10 @@
     </row>
     <row r="4" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="11">
-        <v>18.2605</v>
+        <v>13.26</v>
       </c>
       <c r="H4" s="1">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>
@@ -1000,13 +1001,13 @@
     </row>
     <row r="5" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="12">
-        <v>17.736910000000002</v>
+        <v>13.5481</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="L5" s="18"/>
       <c r="M5" s="19"/>
@@ -1023,14 +1024,14 @@
     </row>
     <row r="6" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="11">
-        <v>18.247409999999999</v>
+        <v>13.535</v>
       </c>
       <c r="F6" s="4">
         <f>AVERAGE(D4:D33)</f>
-        <v>17.360349566666667</v>
+        <v>13.448625333333334</v>
       </c>
       <c r="H6" s="1">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>2</v>
@@ -1053,14 +1054,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="11">
-        <v>18.05106</v>
+        <v>13.613569999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J7" s="4">
         <f>(B11-(J15*(B8)))/F6</f>
-        <v>0.24167716115900714</v>
+        <v>0.3258920440840099</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="19"/>
@@ -1080,10 +1081,10 @@
         <v>0.52</v>
       </c>
       <c r="D8" s="11">
-        <v>17.920159999999999</v>
+        <v>13.548120000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="19"/>
@@ -1100,11 +1101,11 @@
     </row>
     <row r="9" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="12">
-        <v>17.985610000000001</v>
+        <v>13.2994</v>
       </c>
       <c r="F9" s="8"/>
       <c r="H9" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="23"/>
       <c r="M9" s="19"/>
@@ -1124,11 +1125,11 @@
         <v>1</v>
       </c>
       <c r="D10" s="11">
-        <v>18.168869999999998</v>
+        <v>13.5481</v>
       </c>
       <c r="F10" s="9"/>
       <c r="H10" s="1">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>4</v>
@@ -1148,18 +1149,18 @@
     </row>
     <row r="11" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
-        <v>6</v>
+        <v>5.74</v>
       </c>
       <c r="D11" s="11">
-        <v>18.417580000000001</v>
+        <v>13.5481</v>
       </c>
       <c r="F11" s="10"/>
       <c r="H11" s="1">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J11" s="4">
         <f>J19/F6</f>
-        <v>7.2390318708780372E-3</v>
+        <v>1.2600831588612809E-2</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="19"/>
@@ -1176,11 +1177,11 @@
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D12" s="11">
-        <v>18.391407000000001</v>
+        <v>13.626659999999999</v>
       </c>
       <c r="F12" s="10"/>
       <c r="H12" s="1">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="19"/>
@@ -1197,11 +1198,11 @@
     </row>
     <row r="13" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="12">
-        <v>17.959430000000001</v>
+        <v>13.587400000000001</v>
       </c>
       <c r="F13" s="8"/>
       <c r="H13" s="2">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L13" s="23"/>
       <c r="M13" s="19"/>
@@ -1218,7 +1219,7 @@
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D14" s="1">
-        <v>17.77617</v>
+        <v>13.953900000000001</v>
       </c>
       <c r="F14" s="9"/>
       <c r="J14" s="5" t="s">
@@ -1239,12 +1240,12 @@
     </row>
     <row r="15" spans="2:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
-        <v>17.946339999999999</v>
+        <v>13.823</v>
       </c>
       <c r="F15" s="10"/>
       <c r="J15" s="4">
-        <f>AVERAGE(H4:H13)</f>
-        <v>3.4699999999999998</v>
+        <f>AVERAGE(H4:H13)-0.5</f>
+        <v>2.6100000000000003</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="19"/>
@@ -1261,7 +1262,7 @@
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D16" s="1">
-        <v>18.509209999999999</v>
+        <v>13.7576</v>
       </c>
       <c r="F16" s="10"/>
       <c r="L16" s="22"/>
@@ -1279,7 +1280,7 @@
     </row>
     <row r="17" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
-        <v>17.448929</v>
+        <v>13.7052</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -1299,7 +1300,7 @@
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
-        <v>17.318020000000001</v>
+        <v>13.75756</v>
       </c>
       <c r="F18" s="9"/>
       <c r="J18" s="5" t="s">
@@ -1320,11 +1321,11 @@
     </row>
     <row r="19" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
-        <v>17.318020000000001</v>
+        <v>13.456490000000001</v>
       </c>
       <c r="J19" s="4">
         <f>J7*B8</f>
-        <v>0.12567212380268372</v>
+        <v>0.16946386292368515</v>
       </c>
       <c r="L19" s="18"/>
       <c r="M19" s="19"/>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="20" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
-        <v>17.69763</v>
+        <v>13.391030000000001</v>
       </c>
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
@@ -1358,7 +1359,7 @@
     </row>
     <row r="21" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
-        <v>16.912240000000001</v>
+        <v>13.142329999999999</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="25"/>
@@ -1375,70 +1376,70 @@
     </row>
     <row r="22" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
-        <v>17.030049999999999</v>
+        <v>13.116149999999999</v>
       </c>
     </row>
     <row r="23" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
-        <v>16.32319</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" s="31"/>
+        <v>13.155419999999999</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" spans="4:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="1">
-        <v>16.742069999999998</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="33"/>
+        <v>13.28632</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="31"/>
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
-        <v>16.37555</v>
+        <v>13.20778</v>
       </c>
     </row>
     <row r="26" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
-        <v>16.24465</v>
+        <v>13.2994</v>
       </c>
     </row>
     <row r="27" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
-        <v>16.310099999999998</v>
+        <v>13.3779</v>
       </c>
     </row>
     <row r="28" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
-        <v>16.467179999999999</v>
+        <v>13.3779</v>
       </c>
     </row>
     <row r="29" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
-        <v>17.095500999999999</v>
+        <v>13.338699999999999</v>
       </c>
     </row>
     <row r="30" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
-        <v>16.663530000000002</v>
+        <v>13.3125</v>
       </c>
     </row>
     <row r="31" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
-        <v>16.85988</v>
+        <v>13.377940000000001</v>
       </c>
     </row>
     <row r="32" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
-        <v>16.506450000000001</v>
+        <v>13.3125</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="2">
-        <v>16.126840000000001</v>
+        <v>13.19469</v>
       </c>
     </row>
   </sheetData>
